--- a/simplexlsx/xlsx/ornek-1.xlsx
+++ b/simplexlsx/xlsx/ornek-1.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\www\_denemeler\simpleXLSX\simplexlsx\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\simpleXLSX\simplexlsx\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD93DB7-D8E6-454C-AA55-645A9521C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="0" windowWidth="25425" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="0" windowWidth="25425" windowHeight="15600"/>
   </bookViews>
   <sheets>
-    <sheet name="yasin_son" sheetId="1" r:id="rId1"/>
+    <sheet name="projeOkullari" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">yasin_son!$A$2:$E$25</definedName>
-    <definedName name="yasin_son">yasin_son!$A$2:$E$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">projeOkullari!$A$1:$E$24</definedName>
+    <definedName name="yasin_son">projeOkullari!$A$1:$E$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="45">
   <si>
     <t>Sıra No</t>
   </si>
@@ -159,15 +158,12 @@
   </si>
   <si>
     <t xml:space="preserve">Okul Adı </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                 MEB MESLEKİ VE TEKNİK EĞİTİM GENEL MÜDÜRLÜĞÜNE BAĞLI PROJE OKULLARI( 30.07.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -243,9 +239,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -340,23 +333,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -392,23 +368,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E213"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,35 +559,43 @@
     <col min="5" max="5" width="84.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>44</v>
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>758718</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -637,66 +604,66 @@
         <v>25</v>
       </c>
       <c r="D3" s="4">
-        <v>758718</v>
+        <v>764251</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="6">
+        <v>763446</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4">
-        <v>764251</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>111715</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>763446</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>111715</v>
+        <v>973329</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>31</v>
@@ -705,32 +672,32 @@
         <v>4</v>
       </c>
       <c r="D7" s="4">
-        <v>973329</v>
+        <v>765644</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>765644</v>
+        <v>263291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -739,66 +706,66 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>263291</v>
+        <v>962556</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="4">
-        <v>962556</v>
+        <v>116672</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4">
-        <v>116672</v>
+        <v>190126</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="4">
-        <v>190126</v>
+        <v>964686</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
@@ -807,49 +774,49 @@
         <v>4</v>
       </c>
       <c r="D13" s="4">
-        <v>964686</v>
+        <v>959985</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4">
-        <v>959985</v>
+        <v>117820</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
-        <v>117820</v>
+        <v>751978</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
@@ -858,83 +825,83 @@
         <v>23</v>
       </c>
       <c r="D16" s="4">
-        <v>751978</v>
+        <v>888317</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4">
-        <v>888317</v>
+        <v>763695</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4">
-        <v>763695</v>
+        <v>970900</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4">
-        <v>970900</v>
+        <v>121660</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4">
-        <v>121660</v>
+        <v>123240</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
@@ -943,15 +910,15 @@
         <v>15</v>
       </c>
       <c r="D21" s="4">
-        <v>123240</v>
+        <v>751940</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>10</v>
@@ -960,15 +927,15 @@
         <v>15</v>
       </c>
       <c r="D22" s="4">
-        <v>751940</v>
+        <v>765999</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>10</v>
@@ -977,67 +944,829 @@
         <v>15</v>
       </c>
       <c r="D23" s="4">
-        <v>765999</v>
+        <v>123193</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D24" s="4">
-        <v>123193</v>
+        <v>121037</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4">
+        <v>758718</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4">
+        <v>764251</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>763446</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>111715</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>973329</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <v>765644</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4">
+        <v>263291</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>962556</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4">
+        <v>116672</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>10</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4">
+        <v>190126</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>11</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4">
+        <v>964686</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4">
+        <v>959985</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="4">
+        <v>117820</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="D38" s="4">
+        <v>751978</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>15</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="4">
+        <v>888317</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>16</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4">
+        <v>763695</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>17</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="4">
+        <v>970900</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>18</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="4">
+        <v>121660</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>19</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="4">
+        <v>123240</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>20</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="4">
+        <v>751940</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="4">
+        <v>765999</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>22</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="4">
+        <v>123193</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>23</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D47" s="4">
         <v>121037</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-    </row>
-    <row r="213" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="4">
+        <v>758718</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="4">
+        <v>764251</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>3</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6">
+        <v>763446</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4">
+        <v>111715</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>5</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4">
+        <v>973329</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>6</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="4">
+        <v>765644</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>7</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="4">
+        <v>263291</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>8</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="4">
+        <v>962556</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>9</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>116672</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>10</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="4">
+        <v>190126</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>11</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="4">
+        <v>964686</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="4">
+        <v>959985</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>13</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="4">
+        <v>117820</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>14</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="4">
+        <v>751978</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>15</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="4">
+        <v>888317</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>16</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="4">
+        <v>763695</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>17</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="4">
+        <v>970900</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>18</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="4">
+        <v>121660</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>19</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="4">
+        <v>123240</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>20</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="4">
+        <v>751940</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>21</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="4">
+        <v>765999</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>22</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="4">
+        <v>123193</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>23</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="4">
+        <v>121037</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+    </row>
+    <row r="212" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N370">
+  <sortState ref="A2:N370">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
 </worksheet>
